--- a/final/new_neighborhood_by_years_by_scenarios.xlsx
+++ b/final/new_neighborhood_by_years_by_scenarios.xlsx
@@ -459,140 +459,182 @@
       <c r="A2" t="n">
         <v>6901</v>
       </c>
-      <c r="B2" t="n">
-        <v>2035</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>2035</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6902</v>
       </c>
-      <c r="B3" t="n">
-        <v>2035</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>2035</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6903</v>
       </c>
-      <c r="B4" t="n">
-        <v>2035</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>2035</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6904</v>
       </c>
-      <c r="B5" t="n">
-        <v>2035</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>2035</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6905</v>
       </c>
-      <c r="B6" t="n">
-        <v>2035</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
-        <v>2035</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6906</v>
       </c>
-      <c r="B7" t="n">
-        <v>2035</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>2035</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6907</v>
       </c>
-      <c r="B8" t="n">
-        <v>2035</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
-        <v>2035</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6908</v>
       </c>
-      <c r="B9" t="n">
-        <v>2035</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v>2035</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6910</v>
       </c>
-      <c r="B10" t="n">
-        <v>2035</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>2035</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>8821</v>
       </c>
-      <c r="B11" t="n">
-        <v>2030</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2040</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2030</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -602,11 +644,15 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2020</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -616,11 +662,15 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>2035</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2035</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -630,11 +680,15 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>2035</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2035</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -644,11 +698,15 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>2040</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2040</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -658,11 +716,15 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2030</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -672,11 +734,15 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2030</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -686,11 +752,15 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
-        <v>2035</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2035</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -700,11 +770,15 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>2035</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2035</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -714,8 +788,10 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>2030</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -728,8 +804,10 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>2030</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -742,8 +820,10 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
-        <v>2030</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -756,11 +836,15 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2030</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -770,11 +854,15 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2030</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -784,11 +872,15 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2020</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -798,11 +890,15 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2025</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -812,11 +908,15 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2025</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -826,11 +926,15 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2030</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -840,11 +944,15 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2030</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -854,11 +962,15 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2030</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -868,11 +980,15 @@
       <c r="B31" t="n">
         <v>0</v>
       </c>
-      <c r="C31" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2025</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
     </row>
   </sheetData>
